--- a/docs/timetracking/Zeitaufzeichnung_Klotz_Thomas.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Klotz_Thomas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4c7bca0c0d67a7e/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{BA918419-DE62-4C48-92A7-DE679EBDD827}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{FB986E88-C9F2-437C-B68B-CDEFB1FE00E1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -146,7 +146,16 @@
     <t>Einführung in REST</t>
   </si>
   <si>
-    <t>Fix Git</t>
+    <t>Einführung in Angular</t>
+  </si>
+  <si>
+    <t>Implementierung von CategoryServiceTests und Refactoring</t>
+  </si>
+  <si>
+    <t>Korrekturen in Git</t>
+  </si>
+  <si>
+    <t>Implementierung von ExpressionService, Controller und Tests; JavaDocs</t>
   </si>
 </sst>
 </file>
@@ -561,7 +570,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -836,33 +845,78 @@
         <v>22</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="8">
+        <v>44292</v>
+      </c>
+      <c r="B20" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="D20" s="3"/>
-    </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="8">
+        <v>44294</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="8">
+        <v>44294</v>
+      </c>
+      <c r="B22" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="8">
+        <v>44296</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="8">
+        <v>44297</v>
+      </c>
+      <c r="B24" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Klotz_Thomas.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Klotz_Thomas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4c7bca0c0d67a7e/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{5947DA7C-7AD0-44DE-937C-A4CAB55F67F2}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{CF124D5B-89A4-43AB-A4A7-F4F41BBF7B6C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="630" windowWidth="19440" windowHeight="15150" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>Datum</t>
   </si>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t>Implementierung von ExpressionController</t>
+  </si>
+  <si>
+    <t>Workshop 6</t>
+  </si>
+  <si>
+    <t>Implementierung von ExpressionController und diverse Hotfixes</t>
+  </si>
+  <si>
+    <t>Implementiernug von ExpressionController und diverse Hotfixes</t>
   </si>
 </sst>
 </file>
@@ -575,21 +584,21 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="31.5">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="31.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -987,7 +996,7 @@
         <v>44304</v>
       </c>
       <c r="B29" s="6">
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -997,78 +1006,118 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="B30" s="6"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="7">
+        <v>44305</v>
+      </c>
+      <c r="B30" s="6">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="B31" s="6"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="7">
+        <v>44309</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="B32" s="6"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="6"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="2:4">
+      <c r="A32" s="7">
+        <v>44310</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0.1875</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="7">
+        <v>44311</v>
+      </c>
+      <c r="B33" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="B34" s="6"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="1:4">
       <c r="B35" s="6"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="1:4">
       <c r="B36" s="6"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="1:4">
       <c r="B37" s="6"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="1:4">
       <c r="B38" s="6"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="1:4">
       <c r="B39" s="6"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="1:4">
       <c r="B40" s="6"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="1:4">
       <c r="B41" s="6"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="1:4">
       <c r="B42" s="6"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="1:4">
       <c r="B43" s="6"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="1:4">
       <c r="B44" s="6"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="1:4">
       <c r="B45" s="6"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="1:4">
       <c r="B46" s="6"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="1:4">
       <c r="B47" s="6"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="2:4">
+    <row r="48" spans="1:4">
       <c r="B48" s="6"/>
       <c r="D48" s="2"/>
     </row>
@@ -4904,9 +4953,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="34.625" customWidth="1"/>
+    <col min="2" max="2" width="34.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/docs/timetracking/Zeitaufzeichnung_Klotz_Thomas.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Klotz_Thomas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4c7bca0c0d67a7e/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{CF124D5B-89A4-43AB-A4A7-F4F41BBF7B6C}"/>
+  <xr:revisionPtr revIDLastSave="267" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{6D697E82-220F-424A-9CB5-FE1FBEFE8A52}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
   <si>
     <t>Datum</t>
   </si>
@@ -171,6 +171,27 @@
   </si>
   <si>
     <t>Implementiernug von ExpressionController und diverse Hotfixes</t>
+  </si>
+  <si>
+    <t>Bugfixing für Expression und CategoryController</t>
+  </si>
+  <si>
+    <t>StatisticsService, StatisticsController und CategoryService Hotfixes</t>
+  </si>
+  <si>
+    <t>Test für CategoryController und ExpressionController und Hotfixes</t>
+  </si>
+  <si>
+    <t>Tests für StatisticsService</t>
+  </si>
+  <si>
+    <t>StatisticsService</t>
+  </si>
+  <si>
+    <t>StatisticsController</t>
+  </si>
+  <si>
+    <t>Verschiedenes im Backend</t>
   </si>
 </sst>
 </file>
@@ -583,22 +604,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30:B33"/>
+      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.8984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="31.2">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="31.5">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1062,44 +1083,144 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="B34" s="6"/>
-      <c r="D34" s="2"/>
+      <c r="A34" s="7">
+        <v>44312</v>
+      </c>
+      <c r="B34" s="6">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="B35" s="6"/>
-      <c r="D35" s="2"/>
+      <c r="A35" s="7">
+        <v>44313</v>
+      </c>
+      <c r="B35" s="6">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="B36" s="6"/>
-      <c r="D36" s="2"/>
+      <c r="A36" s="7">
+        <v>44316</v>
+      </c>
+      <c r="B36" s="6">
+        <v>0.1875</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="B37" s="6"/>
-      <c r="D37" s="2"/>
+      <c r="A37" s="7">
+        <v>44316</v>
+      </c>
+      <c r="B37" s="6">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="B38" s="6"/>
-      <c r="D38" s="2"/>
+      <c r="A38" s="7">
+        <v>44317</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="B39" s="6"/>
-      <c r="D39" s="2"/>
+      <c r="A39" s="7">
+        <v>44317</v>
+      </c>
+      <c r="B39" s="6">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="B40" s="6"/>
-      <c r="D40" s="2"/>
+      <c r="A40" s="7">
+        <v>44317</v>
+      </c>
+      <c r="B40" s="6">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="B41" s="6"/>
-      <c r="D41" s="2"/>
+      <c r="A41" s="7">
+        <v>44317</v>
+      </c>
+      <c r="B41" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="B42" s="6"/>
-      <c r="D42" s="2"/>
+      <c r="A42" s="7">
+        <v>44318</v>
+      </c>
+      <c r="B42" s="6">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="B43" s="6"/>
-      <c r="D43" s="2"/>
+      <c r="A43" s="7">
+        <v>44318</v>
+      </c>
+      <c r="B43" s="6">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
       <c r="B44" s="6"/>
@@ -4953,9 +5074,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="34.59765625" customWidth="1"/>
+    <col min="2" max="2" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/docs/timetracking/Zeitaufzeichnung_Klotz_Thomas.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Klotz_Thomas.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4c7bca0c0d67a7e/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="267" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{6D697E82-220F-424A-9CB5-FE1FBEFE8A52}"/>
+  <xr:revisionPtr revIDLastSave="449" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{FA1E8B9D-AC41-4739-93CD-5A86271FB78C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="55">
   <si>
     <t>Datum</t>
   </si>
@@ -192,6 +192,24 @@
   </si>
   <si>
     <t>Verschiedenes im Backend</t>
+  </si>
+  <si>
+    <t>Sanity-Check von develop branch</t>
+  </si>
+  <si>
+    <t>Bugfixing für StatisticsService</t>
+  </si>
+  <si>
+    <t>Testdaten erweitert</t>
+  </si>
+  <si>
+    <t>Testdrehbuch verfasssen</t>
+  </si>
+  <si>
+    <t>Bugfixing Expression/Category-Services</t>
+  </si>
+  <si>
+    <t>Bugfixing Expression-Service/Controller</t>
   </si>
 </sst>
 </file>
@@ -604,22 +622,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
+      <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="31.5">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="31.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1223,86 +1241,186 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="B44" s="6"/>
-      <c r="D44" s="2"/>
+      <c r="A44" s="7">
+        <v>44319</v>
+      </c>
+      <c r="B44" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="B45" s="6"/>
-      <c r="D45" s="2"/>
+      <c r="A45" s="7">
+        <v>44321</v>
+      </c>
+      <c r="B45" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="B46" s="6"/>
-      <c r="D46" s="2"/>
+      <c r="A46" s="7">
+        <v>44322</v>
+      </c>
+      <c r="B46" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="B47" s="6"/>
-      <c r="D47" s="2"/>
+      <c r="A47" s="7">
+        <v>44322</v>
+      </c>
+      <c r="B47" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="B48" s="6"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="6"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="6"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="6"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="6"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="6"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="2:4">
+      <c r="A48" s="7">
+        <v>44323</v>
+      </c>
+      <c r="B48" s="6">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="7">
+        <v>44323</v>
+      </c>
+      <c r="B49" s="6">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="7">
+        <v>44324</v>
+      </c>
+      <c r="B50" s="6">
+        <v>0.1875</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="7">
+        <v>44324</v>
+      </c>
+      <c r="B51" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="7">
+        <v>44325</v>
+      </c>
+      <c r="B52" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="7">
+        <v>44325</v>
+      </c>
+      <c r="B53" s="6">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="B54" s="6"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="2:4">
+    <row r="55" spans="1:4">
       <c r="B55" s="6"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="2:4">
+    <row r="56" spans="1:4">
       <c r="B56" s="6"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="2:4">
+    <row r="57" spans="1:4">
       <c r="B57" s="6"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="1:4">
       <c r="B58" s="6"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" spans="1:4">
       <c r="B59" s="6"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="2:4">
+    <row r="60" spans="1:4">
       <c r="B60" s="6"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="2:4">
+    <row r="61" spans="1:4">
       <c r="B61" s="6"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="2:4">
+    <row r="62" spans="1:4">
       <c r="B62" s="6"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="2:4">
+    <row r="63" spans="1:4">
       <c r="B63" s="6"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="2:4">
+    <row r="64" spans="1:4">
       <c r="B64" s="6"/>
       <c r="D64" s="2"/>
     </row>
@@ -5074,9 +5192,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="34.625" customWidth="1"/>
+    <col min="2" max="2" width="34.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/docs/timetracking/Zeitaufzeichnung_Klotz_Thomas.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Klotz_Thomas.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4c7bca0c0d67a7e/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="449" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{FA1E8B9D-AC41-4739-93CD-5A86271FB78C}"/>
+  <xr:revisionPtr revIDLastSave="467" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{58E6AD78-CDBB-4192-940D-F1ED17D3A89E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
     <sheet name="Tätigkeiten" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
   <si>
     <t>Datum</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>Bugfixing Expression-Service/Controller</t>
+  </si>
+  <si>
+    <t>Bugfixing für StatisticsService, Testdaten aktualisiert</t>
   </si>
 </sst>
 </file>
@@ -622,22 +625,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="31.2">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="31.5">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1335,7 @@
         <v>0.1875</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>52</v>
@@ -1371,7 +1374,7 @@
         <v>44325</v>
       </c>
       <c r="B53" s="6">
-        <v>7.2916666666666671E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C53" t="s">
         <v>20</v>
@@ -1381,16 +1384,46 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="B54" s="6"/>
-      <c r="D54" s="2"/>
+      <c r="A54" s="7">
+        <v>44326</v>
+      </c>
+      <c r="B54" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="B55" s="6"/>
-      <c r="D55" s="2"/>
+      <c r="A55" s="7">
+        <v>44328</v>
+      </c>
+      <c r="B55" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="B56" s="6"/>
-      <c r="D56" s="2"/>
+      <c r="A56" s="7">
+        <v>44328</v>
+      </c>
+      <c r="B56" s="6">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
       <c r="B57" s="6"/>
@@ -5192,9 +5225,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="34.59765625" customWidth="1"/>
+    <col min="2" max="2" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/docs/timetracking/Zeitaufzeichnung_Klotz_Thomas.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Klotz_Thomas.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4c7bca0c0d67a7e/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="467" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{58E6AD78-CDBB-4192-940D-F1ED17D3A89E}"/>
+  <xr:revisionPtr revIDLastSave="485" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{BA2F7473-9248-40C3-8F98-696BD882EA02}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="28680" yWindow="630" windowWidth="19440" windowHeight="15150" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
     <sheet name="Tätigkeiten" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
   <si>
     <t>Datum</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>Bugfixing für StatisticsService, Testdaten aktualisiert</t>
+  </si>
+  <si>
+    <t>Abnahmetest von Projekt von Gruppe 5</t>
+  </si>
+  <si>
+    <t>Bugfixing beim Löschen von Begriffen</t>
   </si>
 </sst>
 </file>
@@ -626,10 +632,10 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1426,20 +1432,60 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="B57" s="6"/>
-      <c r="D57" s="2"/>
+      <c r="A57" s="7">
+        <v>44330</v>
+      </c>
+      <c r="B57" s="6">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="B58" s="6"/>
-      <c r="D58" s="2"/>
+      <c r="A58" s="7">
+        <v>44335</v>
+      </c>
+      <c r="B58" s="6">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="B59" s="6"/>
-      <c r="D59" s="2"/>
+      <c r="A59" s="7">
+        <v>44337</v>
+      </c>
+      <c r="B59" s="6">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="B60" s="6"/>
-      <c r="D60" s="2"/>
+      <c r="A60" s="7">
+        <v>44339</v>
+      </c>
+      <c r="B60" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
       <c r="B61" s="6"/>

--- a/docs/timetracking/Zeitaufzeichnung_Klotz_Thomas.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Klotz_Thomas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4c7bca0c0d67a7e/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4c7bca0c0d67a7e/Dokumente/Universität/Informatik-Bachelor/19-Software_Engineering/Seminar/Projektarbeit/g4t3/docs/timetracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="485" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{BA2F7473-9248-40C3-8F98-696BD882EA02}"/>
+  <xr:revisionPtr revIDLastSave="490" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A8DBAD7-9892-40AD-914D-F1C73CE6A85B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="630" windowWidth="19440" windowHeight="15150" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="59">
   <si>
     <t>Datum</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>Bugfixing beim Löschen von Begriffen</t>
+  </si>
+  <si>
+    <t>Bugfixing Löschen von Expressions, StatisticsService</t>
   </si>
 </sst>
 </file>
@@ -635,18 +638,18 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="31.5">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="31.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1488,8 +1491,18 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="B61" s="6"/>
-      <c r="D61" s="2"/>
+      <c r="A61" s="7">
+        <v>44343</v>
+      </c>
+      <c r="B61" s="6">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
       <c r="B62" s="6"/>
@@ -5271,9 +5284,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="34.625" customWidth="1"/>
+    <col min="2" max="2" width="34.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/docs/timetracking/Zeitaufzeichnung_Klotz_Thomas.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Klotz_Thomas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4c7bca0c0d67a7e/Dokumente/Universität/Informatik-Bachelor/19-Software_Engineering/Seminar/Projektarbeit/g4t3/docs/timetracking/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4c7bca0c0d67a7e/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="490" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A8DBAD7-9892-40AD-914D-F1C73CE6A85B}"/>
+  <xr:revisionPtr revIDLastSave="503" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC89E396-60A3-42FF-BABD-80F727549DB9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-19320" yWindow="495" windowWidth="19440" windowHeight="15150" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="60">
   <si>
     <t>Datum</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Bugfixing Löschen von Expressions, StatisticsService</t>
+  </si>
+  <si>
+    <t>Abnahmetest von eigenem Projekt</t>
   </si>
 </sst>
 </file>
@@ -635,21 +638,21 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
+      <selection pane="bottomRight" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="31.2">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="31.5">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1505,12 +1508,32 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="B62" s="6"/>
-      <c r="D62" s="2"/>
+      <c r="A62" s="7">
+        <v>44347</v>
+      </c>
+      <c r="B62" s="6">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="B63" s="6"/>
-      <c r="D63" s="2"/>
+      <c r="A63" s="7">
+        <v>44350</v>
+      </c>
+      <c r="B63" s="6">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="B64" s="6"/>
@@ -5284,9 +5307,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="34.59765625" customWidth="1"/>
+    <col min="2" max="2" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/docs/timetracking/Zeitaufzeichnung_Klotz_Thomas.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Klotz_Thomas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4c7bca0c0d67a7e/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="503" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC89E396-60A3-42FF-BABD-80F727549DB9}"/>
+  <xr:revisionPtr revIDLastSave="508" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5281C12-27F2-4EB4-BDE4-63F9CE102264}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="495" windowWidth="19440" windowHeight="15150" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="60">
   <si>
     <t>Datum</t>
   </si>
@@ -224,7 +224,7 @@
     <t>Bugfixing Löschen von Expressions, StatisticsService</t>
   </si>
   <si>
-    <t>Abnahmetest von eigenem Projekt</t>
+    <t>Systemtest</t>
   </si>
 </sst>
 </file>
@@ -638,10 +638,10 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B64" sqref="B64"/>
+      <selection pane="bottomRight" activeCell="B64" sqref="B2:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1536,8 +1536,18 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="B64" s="6"/>
-      <c r="D64" s="2"/>
+      <c r="A64" s="7">
+        <v>44359</v>
+      </c>
+      <c r="B64" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="6"/>

--- a/docs/timetracking/Zeitaufzeichnung_Klotz_Thomas.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Klotz_Thomas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4c7bca0c0d67a7e/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="508" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5281C12-27F2-4EB4-BDE4-63F9CE102264}"/>
+  <xr:revisionPtr revIDLastSave="516" documentId="13_ncr:1_{5FF9A14E-D2E6-454F-9BA4-3D186F544A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A0CFB9F-9E00-4A16-A00F-9C9CC8683A18}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="495" windowWidth="19440" windowHeight="15150" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="61">
   <si>
     <t>Datum</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>Systemtest</t>
+  </si>
+  <si>
+    <t>Abschlusspräsentation erstellt</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B64" sqref="B2:B64"/>
+      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1549,67 +1552,87 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="6"/>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66" s="6"/>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="2:4">
+    <row r="65" spans="1:4">
+      <c r="A65" s="7">
+        <v>44361</v>
+      </c>
+      <c r="B65" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="7">
+        <v>44364</v>
+      </c>
+      <c r="B66" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="B67" s="6"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="2:4">
+    <row r="68" spans="1:4">
       <c r="B68" s="6"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="1:4">
       <c r="B69" s="6"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="2:4">
+    <row r="70" spans="1:4">
       <c r="B70" s="6"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="2:4">
+    <row r="71" spans="1:4">
       <c r="B71" s="6"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="2:4">
+    <row r="72" spans="1:4">
       <c r="B72" s="6"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="2:4">
+    <row r="73" spans="1:4">
       <c r="B73" s="6"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="2:4">
+    <row r="74" spans="1:4">
       <c r="B74" s="6"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="2:4">
+    <row r="75" spans="1:4">
       <c r="B75" s="6"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="2:4">
+    <row r="76" spans="1:4">
       <c r="B76" s="6"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="2:4">
+    <row r="77" spans="1:4">
       <c r="B77" s="6"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="2:4">
+    <row r="78" spans="1:4">
       <c r="B78" s="6"/>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="2:4">
+    <row r="79" spans="1:4">
       <c r="B79" s="6"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="2:4">
+    <row r="80" spans="1:4">
       <c r="B80" s="6"/>
       <c r="D80" s="2"/>
     </row>
